--- a/2024/shuffle-architecute/Teste10/content/results/metrics_2_5.xlsx
+++ b/2024/shuffle-architecute/Teste10/content/results/metrics_2_5.xlsx
@@ -492,441 +492,441 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9746247992276977</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.8136829804857395</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999744188753389</v>
+        <v>0.9901060970766679</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9388980058594399</v>
+        <v>0.9991532861030178</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9836498932307038</v>
+        <v>0.9982606063589262</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.1064942926168442</v>
       </c>
       <c r="H2" t="n">
-        <v>1.670795202255249</v>
+        <v>1.24590277671814</v>
       </c>
       <c r="I2" t="n">
-        <v>4.28102066507563e-05</v>
+        <v>0.01244048774242401</v>
       </c>
       <c r="J2" t="n">
-        <v>0.04954948648810387</v>
+        <v>0.00853869691491127</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0247961487621069</v>
+        <v>0.01048959046602249</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_22</t>
+          <t>model_2_5_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9776443251003183</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.8123609757922766</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999744188753389</v>
+        <v>0.9735679422908613</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9388980058594399</v>
+        <v>0.9969861198240102</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9836498932307038</v>
+        <v>0.9947244920311302</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.09382198005914688</v>
       </c>
       <c r="H3" t="n">
-        <v>1.670795202255249</v>
+        <v>1.254742980003357</v>
       </c>
       <c r="I3" t="n">
-        <v>4.28102066507563e-05</v>
+        <v>0.03323538601398468</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04954948648810387</v>
+        <v>0.03039351291954517</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0247961487621069</v>
+        <v>0.03181448951363564</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_21</t>
+          <t>model_2_5_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9790723721160581</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.8103089709290806</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999744188753389</v>
+        <v>0.9503849738139851</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9388980058594399</v>
+        <v>0.9937955129550957</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9836498932307038</v>
+        <v>0.9896399426535868</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.08782878518104553</v>
       </c>
       <c r="H4" t="n">
-        <v>1.670795202255249</v>
+        <v>1.268464803695679</v>
       </c>
       <c r="I4" t="n">
-        <v>4.28102066507563e-05</v>
+        <v>0.06238540261983871</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04954948648810387</v>
+        <v>0.06256922334432602</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0247961487621069</v>
+        <v>0.06247738376259804</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_20</t>
+          <t>model_2_5_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.979234534189258</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.807707416302834</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999744188753389</v>
+        <v>0.9219314899638097</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9388980058594399</v>
+        <v>0.9898228732660104</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9836498932307038</v>
+        <v>0.9833520910580547</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.08714821189641953</v>
       </c>
       <c r="H5" t="n">
-        <v>1.670795202255249</v>
+        <v>1.285861372947693</v>
       </c>
       <c r="I5" t="n">
-        <v>4.28102066507563e-05</v>
+        <v>0.09816250950098038</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04954948648810387</v>
+        <v>0.1026313677430153</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0247961487621069</v>
+        <v>0.100396916270256</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_19</t>
+          <t>model_2_5_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9784038096571187</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.8047075656144138</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999744188753389</v>
+        <v>0.889476017678611</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9388980058594399</v>
+        <v>0.9852683034015115</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9836498932307038</v>
+        <v>0.9761604654660341</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.09063459187746048</v>
       </c>
       <c r="H6" t="n">
-        <v>1.670795202255249</v>
+        <v>1.30592143535614</v>
       </c>
       <c r="I6" t="n">
-        <v>4.28102066507563e-05</v>
+        <v>0.138971671462059</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04954948648810387</v>
+        <v>0.1485619843006134</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0247961487621069</v>
+        <v>0.1437667459249496</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_18</t>
+          <t>model_2_5_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9768106059194948</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.8014372741720649</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999744188753389</v>
+        <v>0.8541652952984541</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9388980058594399</v>
+        <v>0.9803035059453352</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9836498932307038</v>
+        <v>0.9683281470048697</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.09732092171907425</v>
       </c>
       <c r="H7" t="n">
-        <v>1.670795202255249</v>
+        <v>1.327789902687073</v>
       </c>
       <c r="I7" t="n">
-        <v>4.28102066507563e-05</v>
+        <v>0.1833710074424744</v>
       </c>
       <c r="J7" t="n">
-        <v>0.04954948648810387</v>
+        <v>0.1986295580863953</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0247961487621069</v>
+        <v>0.1910003423690796</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_17</t>
+          <t>model_2_5_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9746496794975504</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.7980044602804857</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999744188753389</v>
+        <v>0.8170163362299593</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9388980058594399</v>
+        <v>0.9750777920107466</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9836498932307038</v>
+        <v>0.9600860628663729</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.1063898727297783</v>
       </c>
       <c r="H8" t="n">
-        <v>1.670795202255249</v>
+        <v>1.35074508190155</v>
       </c>
       <c r="I8" t="n">
-        <v>4.28102066507563e-05</v>
+        <v>0.230081707239151</v>
       </c>
       <c r="J8" t="n">
-        <v>0.04954948648810387</v>
+        <v>0.2513283491134644</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0247961487621069</v>
+        <v>0.2407050728797913</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_16</t>
+          <t>model_2_5_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9720851057295493</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.7944997201829352</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999744188753389</v>
+        <v>0.7789124527006475</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9388980058594399</v>
+        <v>0.969721186614821</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9836498932307038</v>
+        <v>0.9516350071271851</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.1171528398990631</v>
       </c>
       <c r="H9" t="n">
-        <v>1.670795202255249</v>
+        <v>1.374181389808655</v>
       </c>
       <c r="I9" t="n">
-        <v>4.28102066507563e-05</v>
+        <v>0.2779931128025055</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04954948648810387</v>
+        <v>0.3053470849990845</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0247961487621069</v>
+        <v>0.291670024394989</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_15</t>
+          <t>model_2_5_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9692538908228515</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.7909979252531657</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999744188753389</v>
+        <v>0.7406041234650498</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9388980058594399</v>
+        <v>0.9643453483634986</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9836498932307038</v>
+        <v>0.9431465149251252</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.1290348470211029</v>
       </c>
       <c r="H10" t="n">
-        <v>1.670795202255249</v>
+        <v>1.397597908973694</v>
       </c>
       <c r="I10" t="n">
-        <v>4.28102066507563e-05</v>
+        <v>0.3261615931987762</v>
       </c>
       <c r="J10" t="n">
-        <v>0.04954948648810387</v>
+        <v>0.3595598042011261</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0247961487621069</v>
+        <v>0.3428607583045959</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_14</t>
+          <t>model_2_5_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9662687393104614</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.7875592828089557</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999744188753389</v>
+        <v>0.7027126123947167</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9388980058594399</v>
+        <v>0.9590433017757648</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9836498932307038</v>
+        <v>0.9347631986158969</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.1415628790855408</v>
       </c>
       <c r="H11" t="n">
-        <v>1.670795202255249</v>
+        <v>1.420592069625854</v>
       </c>
       <c r="I11" t="n">
-        <v>4.28102066507563e-05</v>
+        <v>0.373805969953537</v>
       </c>
       <c r="J11" t="n">
-        <v>0.04954948648810387</v>
+        <v>0.413028359413147</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0247961487621069</v>
+        <v>0.3934171795845032</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_13</t>
+          <t>model_2_5_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9632208798057038</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.7842307620616271</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999744188753389</v>
+        <v>0.6657405735282143</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9388980058594399</v>
+        <v>0.9538904742900778</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9836498932307038</v>
+        <v>0.9266004944945874</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.1543540954589844</v>
       </c>
       <c r="H12" t="n">
-        <v>1.670795202255249</v>
+        <v>1.44284987449646</v>
       </c>
       <c r="I12" t="n">
-        <v>4.28102066507563e-05</v>
+        <v>0.4202942550182343</v>
       </c>
       <c r="J12" t="n">
-        <v>0.04954948648810387</v>
+        <v>0.4649921357631683</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0247961487621069</v>
+        <v>0.4426431655883789</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_23</t>
+          <t>model_2_5_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9601824192990447</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.7810473606018058</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999744188753389</v>
+        <v>0.6300781079782578</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9388980058594399</v>
+        <v>0.9489451661270625</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9836498932307038</v>
+        <v>0.9187478316731765</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.1671058684587479</v>
       </c>
       <c r="H13" t="n">
-        <v>1.670795202255249</v>
+        <v>1.464137315750122</v>
       </c>
       <c r="I13" t="n">
-        <v>4.28102066507563e-05</v>
+        <v>0.4651358425617218</v>
       </c>
       <c r="J13" t="n">
-        <v>0.04954948648810387</v>
+        <v>0.5148631930351257</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0247961487621069</v>
+        <v>0.4899994730949402</v>
       </c>
     </row>
     <row r="14">
@@ -936,441 +936,441 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9572086319104155</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.7780335353312083</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999744188753389</v>
+        <v>0.5960160354281374</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9388980058594399</v>
+        <v>0.9442495851401015</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9836498932307038</v>
+        <v>0.9112707915308533</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.1795862168073654</v>
       </c>
       <c r="H14" t="n">
-        <v>1.670795202255249</v>
+        <v>1.484290838241577</v>
       </c>
       <c r="I14" t="n">
-        <v>4.28102066507563e-05</v>
+        <v>0.5079651474952698</v>
       </c>
       <c r="J14" t="n">
-        <v>0.04954948648810387</v>
+        <v>0.5622158050537109</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0247961487621069</v>
+        <v>0.5350905060768127</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_10</t>
+          <t>model_2_5_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9543407502715041</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.7752045766851545</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999744188753389</v>
+        <v>0.5637611054679229</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9388980058594399</v>
+        <v>0.9398322167203611</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9836498932307038</v>
+        <v>0.9042147949484254</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.1916221082210541</v>
       </c>
       <c r="H15" t="n">
-        <v>1.670795202255249</v>
+        <v>1.503208041191101</v>
       </c>
       <c r="I15" t="n">
-        <v>4.28102066507563e-05</v>
+        <v>0.5485221743583679</v>
       </c>
       <c r="J15" t="n">
-        <v>0.04954948648810387</v>
+        <v>0.6067627668380737</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0247961487621069</v>
+        <v>0.5776424407958984</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_9</t>
+          <t>model_2_5_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9516072797475762</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.7725682089725479</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999744188753389</v>
+        <v>0.5334386129340025</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9388980058594399</v>
+        <v>0.9357085431181968</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9836498932307038</v>
+        <v>0.8976058058310266</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.2030939161777496</v>
       </c>
       <c r="H16" t="n">
-        <v>1.670795202255249</v>
+        <v>1.520837545394897</v>
       </c>
       <c r="I16" t="n">
-        <v>4.28102066507563e-05</v>
+        <v>0.5866492986679077</v>
       </c>
       <c r="J16" t="n">
-        <v>0.04954948648810387</v>
+        <v>0.6483480334281921</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0247961487621069</v>
+        <v>0.6174986362457275</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_8</t>
+          <t>model_2_5_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9490271276019022</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.7701262150462442</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999744188753389</v>
+        <v>0.505113115457166</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9388980058594399</v>
+        <v>0.9318847925153719</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9836498932307038</v>
+        <v>0.8914557613507021</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.2139222174882889</v>
       </c>
       <c r="H17" t="n">
-        <v>1.670795202255249</v>
+        <v>1.537167072296143</v>
       </c>
       <c r="I17" t="n">
-        <v>4.28102066507563e-05</v>
+        <v>0.6222655177116394</v>
       </c>
       <c r="J17" t="n">
-        <v>0.04954948648810387</v>
+        <v>0.6869087219238281</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0247961487621069</v>
+        <v>0.6545870900154114</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_7</t>
+          <t>model_2_5_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9466108644783788</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.7678755923408974</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999744188753389</v>
+        <v>0.4787982845008038</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9388980058594399</v>
+        <v>0.9283584204551704</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9836498932307038</v>
+        <v>0.8857640068829252</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.2240627706050873</v>
       </c>
       <c r="H18" t="n">
-        <v>1.670795202255249</v>
+        <v>1.55221700668335</v>
       </c>
       <c r="I18" t="n">
-        <v>4.28102066507563e-05</v>
+        <v>0.6553534865379333</v>
       </c>
       <c r="J18" t="n">
-        <v>0.04954948648810387</v>
+        <v>0.7224704623222351</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0247961487621069</v>
+        <v>0.6889117956161499</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_6</t>
+          <t>model_2_5_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9443627953907731</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.7658100868519533</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999744188753389</v>
+        <v>0.4544634500055338</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9388980058594399</v>
+        <v>0.9251215780332147</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9836498932307038</v>
+        <v>0.8805206821100742</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.2334974259138107</v>
       </c>
       <c r="H19" t="n">
-        <v>1.670795202255249</v>
+        <v>1.566028952598572</v>
       </c>
       <c r="I19" t="n">
-        <v>4.28102066507563e-05</v>
+        <v>0.685951828956604</v>
       </c>
       <c r="J19" t="n">
-        <v>0.04954948648810387</v>
+        <v>0.7551124691963196</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0247961487621069</v>
+        <v>0.7205321788787842</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_5</t>
+          <t>model_2_5_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9422825116254736</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.7639210947255687</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999744188753389</v>
+        <v>0.4320504227034569</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9388980058594399</v>
+        <v>0.9221616430243723</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9836498932307038</v>
+        <v>0.8757092933408235</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.2422279417514801</v>
       </c>
       <c r="H20" t="n">
-        <v>1.670795202255249</v>
+        <v>1.578660726547241</v>
       </c>
       <c r="I20" t="n">
-        <v>4.28102066507563e-05</v>
+        <v>0.7141337394714355</v>
       </c>
       <c r="J20" t="n">
-        <v>0.04954948648810387</v>
+        <v>0.7849618792533875</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0247961487621069</v>
+        <v>0.7495478391647339</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_4</t>
+          <t>model_2_5_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9403660398353746</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.7621983156103429</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999744188753389</v>
+        <v>0.4114775604489628</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9388980058594399</v>
+        <v>0.9194633525588237</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9836498932307038</v>
+        <v>0.8713084697669623</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.2502709627151489</v>
       </c>
       <c r="H21" t="n">
-        <v>1.670795202255249</v>
+        <v>1.590180993080139</v>
       </c>
       <c r="I21" t="n">
-        <v>4.28102066507563e-05</v>
+        <v>0.7400017976760864</v>
       </c>
       <c r="J21" t="n">
-        <v>0.04954948648810387</v>
+        <v>0.8121728897094727</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0247961487621069</v>
+        <v>0.7760874032974243</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_3</t>
+          <t>model_2_5_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9386070717901407</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.7606309262605306</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999744188753389</v>
+        <v>0.3926482934405098</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9388980058594399</v>
+        <v>0.9170100523459928</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9836498932307038</v>
+        <v>0.8672942888007489</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.2576529681682587</v>
       </c>
       <c r="H22" t="n">
-        <v>1.670795202255249</v>
+        <v>1.600662112236023</v>
       </c>
       <c r="I22" t="n">
-        <v>4.28102066507563e-05</v>
+        <v>0.7636775374412537</v>
       </c>
       <c r="J22" t="n">
-        <v>0.04954948648810387</v>
+        <v>0.8369131684303284</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0247961487621069</v>
+        <v>0.800295352935791</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_2</t>
+          <t>model_2_5_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9369976391322058</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.7592076302337869</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999744188753389</v>
+        <v>0.375459019864777</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9388980058594399</v>
+        <v>0.9147840811656082</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9836498932307038</v>
+        <v>0.8636410994962647</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.2644074261188507</v>
       </c>
       <c r="H23" t="n">
-        <v>1.670795202255249</v>
+        <v>1.610179662704468</v>
       </c>
       <c r="I23" t="n">
-        <v>4.28102066507563e-05</v>
+        <v>0.7852911949157715</v>
       </c>
       <c r="J23" t="n">
-        <v>0.04954948648810387</v>
+        <v>0.8593610525131226</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0247961487621069</v>
+        <v>0.8223263025283813</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_1</t>
+          <t>model_2_5_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9355286865658916</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.7579171730052214</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999744188753389</v>
+        <v>0.359797960806058</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9388980058594399</v>
+        <v>0.9127676180454398</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9836498932307038</v>
+        <v>0.8603224417589014</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.270572304725647</v>
       </c>
       <c r="H24" t="n">
-        <v>1.670795202255249</v>
+        <v>1.61880898475647</v>
       </c>
       <c r="I24" t="n">
-        <v>4.28102066507563e-05</v>
+        <v>0.8049831986427307</v>
       </c>
       <c r="J24" t="n">
-        <v>0.04954948648810387</v>
+        <v>0.8796960711479187</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0247961487621069</v>
+        <v>0.8423397541046143</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_11</t>
+          <t>model_2_5_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9341909043189233</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.7567486489167207</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999744188753389</v>
+        <v>0.3455546320565238</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9388980058594399</v>
+        <v>0.9109435678945244</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9836498932307038</v>
+        <v>0.8573125230960579</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.2761866748332977</v>
       </c>
       <c r="H25" t="n">
-        <v>1.670795202255249</v>
+        <v>1.626622915267944</v>
       </c>
       <c r="I25" t="n">
-        <v>4.28102066507563e-05</v>
+        <v>0.8228926658630371</v>
       </c>
       <c r="J25" t="n">
-        <v>0.04954948648810387</v>
+        <v>0.8980907201766968</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0247961487621069</v>
+        <v>0.8604913949966431</v>
       </c>
     </row>
     <row r="26">
@@ -1380,34 +1380,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9329745928258948</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.7556916730384043</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999744188753389</v>
+        <v>0.3326196737599237</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9388980058594399</v>
+        <v>0.9092952795626064</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9836498932307038</v>
+        <v>0.8545858397320227</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.281291276216507</v>
       </c>
       <c r="H26" t="n">
-        <v>1.670795202255249</v>
+        <v>1.6336909532547</v>
       </c>
       <c r="I26" t="n">
-        <v>4.28102066507563e-05</v>
+        <v>0.8391568660736084</v>
       </c>
       <c r="J26" t="n">
-        <v>0.04954948648810387</v>
+        <v>0.9147129058837891</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0247961487621069</v>
+        <v>0.8769348859786987</v>
       </c>
     </row>
   </sheetData>
